--- a/mcmaster_excel/Holding_Screws_for_Toggle_Clamps.xlsx
+++ b/mcmaster_excel/Holding_Screws_for_Toggle_Clamps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,58 +434,54 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ThreadSize</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ThreadLg.</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>TipDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>OverallLg.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>With Rubber Fixed Flat Tip</t>
+          <t>Holding Screws</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -496,42 +492,34 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>ThreadSize</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>ThreadLg.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9/16"</t>
+          <t>TipDia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1"</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5147A56</t>
-        </is>
-      </c>
+          <t>OverallLg.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$3.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5147A88</t>
-        </is>
-      </c>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>$5.64</t>
+          <t>Each</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -540,86 +528,58 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8-32</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1"</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>9/16"</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1 1/4"</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5147A57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>______</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
+          <t>With Rubber Fixed Flat Tip</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>9/16"</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>1"</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>9/16"</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1 3/8"</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5147A61</t>
+          <t>5147A56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>$3.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5147A16</t>
+          <t>5147A88</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>$5.64</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -628,32 +588,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11/16"</t>
+          <t>9/16"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5147A58</t>
+          <t>5147A57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -672,42 +632,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1 1/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>9/16"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1 5/8"</t>
+          <t>1 3/8"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5147A62</t>
+          <t>5147A61</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5147A17</t>
+          <t>5147A16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -721,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1 1/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,17 +691,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5147A59</t>
+          <t>5147A58</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -765,37 +725,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1 1/8"</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5/8"</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>1 5/8"</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5/8"</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2 1/8"</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5147A63</t>
+          <t>5147A62</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5147A18</t>
+          <t>5147A17</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -809,37 +769,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/8"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19/32"</t>
+          <t>11/16"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1 29/32"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>______</t>
+          <t>5147A59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5147A98</t>
+          <t>______</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -848,7 +808,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -858,17 +818,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13/16"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2 1/4"</t>
+          <t>2 1/8"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5147A64</t>
+          <t>5147A63</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -878,12 +838,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5147A19</t>
+          <t>5147A18</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -892,42 +852,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2 3/8"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13/16"</t>
+          <t>19/32"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>1 29/32"</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5147A65</t>
+          <t>______</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5147A84</t>
+          <t>5147A98</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -936,42 +896,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2 3/8"</t>
+          <t>1 5/8"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>13/16"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3 1/4"</t>
+          <t>2 1/4"</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5147A66</t>
+          <t>5147A64</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5147A85</t>
+          <t>5147A19</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14.04</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -980,42 +940,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2 3/8"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>13/16"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3 1/2"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5147A67</t>
+          <t>5147A65</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>______</t>
+          <t>5147A84</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1029,7 +989,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4 7/8"</t>
+          <t>2 3/8"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1039,27 +999,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5 3/4"</t>
+          <t>3 1/4"</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5147A68</t>
+          <t>5147A66</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>______</t>
+          <t>5147A85</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>14.04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1068,32 +1028,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1/2"-13</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2 3/4"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1 3/16"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3 7/8"</t>
+          <t>3 1/2"</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5147A69</t>
+          <t>5147A67</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1112,32 +1072,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5/8"-11</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3 5/8"</t>
+          <t>4 7/8"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1 3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5"</t>
+          <t>5 3/4"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5147A71</t>
+          <t>5147A68</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>13.56</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1156,32 +1116,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>1/2"-13</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>13/16"</t>
+          <t>2 3/4"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1 3/16"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3 7/8"</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5147A76</t>
+          <t>5147A69</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1200,32 +1160,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>5/8"-11</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1 3/16"</t>
+          <t>3 5/8"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1 3/8"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5147A21</t>
+          <t>5147A71</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>13.56</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1244,32 +1204,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M5</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>13/16"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1 1/8"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5147A78</t>
+          <t>5147A76</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1288,32 +1248,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>M5</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1 3/8"</t>
+          <t>1 3/16"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1 9/16"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5147A79</t>
+          <t>5147A21</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1332,32 +1292,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>11/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1 1/8"</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5147A94</t>
+          <t>5147A78</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1376,32 +1336,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1 3/16"</t>
+          <t>1 3/8"</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 9/16"</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5147A23</t>
+          <t>5147A79</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1425,27 +1385,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1 5/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>11/16"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2 1/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5147A24</t>
+          <t>5147A94</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1464,32 +1424,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>M8</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1 3/8"</t>
+          <t>1 3/16"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13/16"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2 1/8"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5147A25</t>
+          <t>5147A23</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1508,32 +1468,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>M8</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 5/8"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2 1/8"</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5147A75</t>
+          <t>5147A24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1557,7 +1517,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2 5/8"</t>
+          <t>1 3/8"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1567,17 +1527,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3 3/8"</t>
+          <t>2 1/8"</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5147A26</t>
+          <t>5147A25</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1596,32 +1556,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>M10</t>
+          <t>M8</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2 3/16"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3 1/8"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5147A92</t>
+          <t>5147A75</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1640,32 +1600,32 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>M10</t>
+          <t>M8</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3 3/4"</t>
+          <t>2 5/8"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>13/16"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4 3/4"</t>
+          <t>3 3/8"</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5147A91</t>
+          <t>5147A26</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1684,32 +1644,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>M12</t>
+          <t>M10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2 7/8"</t>
+          <t>2 3/16"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1 3/16"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4 1/8"</t>
+          <t>3 1/8"</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5147A93</t>
+          <t>5147A92</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>11.37</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1728,48 +1688,76 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>With Rubber Fixed Cone Tip</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3 3/4"</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4 3/4"</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5147A91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>______</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>M12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>2 7/8"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9/16"</t>
+          <t>1 3/16"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>4 1/8"</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5147A81</t>
+          <t>5147A93</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>11.37</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1788,76 +1776,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1 5/8"</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2 1/4"</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>5147A82</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>______</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
+          <t>With Rubber Fixed Cone Tip</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2 3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>9/16"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5147A83</t>
+          <t>5147A81</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1876,12 +1836,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4 3/4"</t>
+          <t>1 5/8"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1891,17 +1851,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5 1/2"</t>
+          <t>2 1/4"</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5147A95</t>
+          <t>5147A82</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1920,32 +1880,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2 3/8"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3 1/2"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5147A77</t>
+          <t>5147A83</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1964,48 +1924,76 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>With Rubber Swiveling Flat Tip</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>4 3/4"</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5 1/2"</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5147A95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>______</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1 5/8"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2 5/8"</t>
+          <t>3 1/2"</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5147A72</t>
+          <t>5147A77</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2024,76 +2012,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2"</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1 1/2"</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>3"</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>5147A73</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>21.90</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>______</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
+          <t>With Rubber Swiveling Flat Tip</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>1 5/8"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3 5/8"</t>
+          <t>2 5/8"</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5147A74</t>
+          <t>5147A72</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>24.85</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2112,48 +2072,76 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>With Steel Fixed Flat Tip</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2"</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1 1/2"</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3"</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>5147A73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>______</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1 3/32"</t>
+          <t>3 5/8"</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5147A97</t>
+          <t>5147A74</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>24.85</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2172,72 +2160,72 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1 3/4"</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2"</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>5147A101</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>______</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
+          <t>With Steel Fixed Flat Tip</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>With Steel Swiveling Flat Tip</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1/4"</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1 3/32"</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>5147A97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>______</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1 5/8"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2247,17 +2235,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5147A28</t>
+          <t>5147A101</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2276,76 +2264,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2"</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>9/16"</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2 3/4"</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>5147A29</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>______</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
+          <t>With Steel Swiveling Flat Tip</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 5/8"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3 1/8"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5147A31</t>
+          <t>5147A28</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2364,32 +2324,32 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>9/16"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3 3/8"</t>
+          <t>2 3/4"</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5147A32</t>
+          <t>5147A29</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>9.31</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2408,32 +2368,32 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1/2"-13</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3 1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4 5/8"</t>
+          <t>3 1/8"</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5147A33</t>
+          <t>5147A31</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>14.67</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2452,58 +2412,86 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>With Stainless Steel Fixed Flat Tip</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2 1/2"</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>5/8"</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3 3/8"</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>5147A32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>______</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>1/2"-13</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>3 1/2"</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>1"</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>5/16"</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1 1/8"</t>
+          <t>4 5/8"</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>______</t>
+          <t>5147A33</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>14.67</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>5147A99</t>
+          <t>______</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -2512,46 +2500,106 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>M4</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>13/16"</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>5/16"</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>29/32"</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>______</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>5147A102</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
+          <t>With Stainless Steel Fixed Flat Tip</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>5/16"</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1 1/8"</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>______</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>5147A99</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>13/16"</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>5/16"</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>29/32"</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>______</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>5147A102</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
